--- a/Projet_2(organisation)/budget/devis.xlsx
+++ b/Projet_2(organisation)/budget/devis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sch-a\Documents\OC\OC\Projet_2(organisation)\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_documents\OpenClassroom\OC\Projet_2(organisation)\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Devis</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Révolution digitale</t>
+  </si>
+  <si>
+    <t>Mise en ligne</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -451,6 +454,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,12 +482,43 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -849,26 +884,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -878,7 +913,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -888,18 +923,18 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -914,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -929,7 +964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -939,7 +974,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -949,7 +984,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -959,7 +994,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>45</v>
       </c>
@@ -971,7 +1006,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="14"/>
@@ -984,7 +1019,7 @@
       <c r="H14" s="3"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>4</v>
       </c>
@@ -997,7 +1032,7 @@
       <c r="H15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="15"/>
@@ -1014,7 +1049,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1065,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="6"/>
@@ -1046,7 +1081,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
@@ -1062,7 +1097,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1076,7 +1111,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1090,7 +1125,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1104,13 +1139,13 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="16" t="s">
         <v>10</v>
       </c>
@@ -1124,19 +1159,19 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52" t="s">
+    <row r="24" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>15</v>
       </c>
@@ -1153,7 +1188,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1205,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>17</v>
       </c>
@@ -1178,16 +1213,16 @@
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23">
-        <v>957.27272727272737</v>
+        <v>2393.1818181818185</v>
       </c>
       <c r="F27" s="24">
         <f>E27*1.196</f>
-        <v>1144.8981818181819</v>
+        <v>2862.2454545454548</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="25" t="s">
         <v>18</v>
       </c>
@@ -1204,7 +1239,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +1251,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1268,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="20" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1285,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="20" t="s">
         <v>21</v>
       </c>
@@ -1267,7 +1302,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>22</v>
       </c>
@@ -1284,7 +1319,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="20" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1336,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="28" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1348,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="33" t="s">
         <v>24</v>
       </c>
@@ -1324,13 +1359,13 @@
         <v>646.90363636363634</v>
       </c>
       <c r="F36" s="24">
-        <f>E36*1.196</f>
+        <f t="shared" ref="F36:F41" si="0">E36*1.196</f>
         <v>773.69674909090907</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>25</v>
       </c>
@@ -1341,13 +1376,13 @@
         <v>1267.2163636363637</v>
       </c>
       <c r="F37" s="24">
-        <f>E37*1.196</f>
+        <f t="shared" si="0"/>
         <v>1515.5907709090909</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="33" t="s">
         <v>26</v>
       </c>
@@ -1358,13 +1393,13 @@
         <v>276.54545454545456</v>
       </c>
       <c r="F38" s="24">
-        <f>E38*1.196</f>
+        <f t="shared" si="0"/>
         <v>330.74836363636365</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>27</v>
       </c>
@@ -1375,13 +1410,13 @@
         <v>401.04409090909093</v>
       </c>
       <c r="F39" s="24">
-        <f>E39*1.196</f>
+        <f t="shared" si="0"/>
         <v>479.64873272727272</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>28</v>
       </c>
@@ -1392,187 +1427,180 @@
         <v>1267.2163636363637</v>
       </c>
       <c r="F40" s="24">
-        <f>E40*1.196</f>
+        <f t="shared" si="0"/>
         <v>1515.5907709090909</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+    <row r="41" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="46">
+        <v>310.16000000000003</v>
+      </c>
+      <c r="F41" s="24">
+        <f t="shared" si="0"/>
+        <v>370.95136000000002</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="37" t="s">
+    <row r="42" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B44" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C44" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="38">
-        <f>SUM(E25:E40)</f>
-        <v>11582.042727272727</v>
-      </c>
-      <c r="B43" s="39">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="C43" s="40">
-        <f>A43*0.196</f>
-        <v>2270.0803745454546</v>
-      </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="38">
-        <f>A43</f>
-        <v>11582.042727272727</v>
-      </c>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
+    <row r="45" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="38">
+        <f>SUM(E25:E41)</f>
+        <v>13328.111818181818</v>
+      </c>
+      <c r="B45" s="39">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C45" s="40">
+        <f>A45*0.196</f>
+        <v>2612.3099163636366</v>
+      </c>
       <c r="D45" s="36"/>
-      <c r="E45" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="40">
-        <f>C43</f>
-        <v>2270.0803745454546</v>
-      </c>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="44" t="s">
-        <v>38</v>
-      </c>
+    <row r="46" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
       <c r="E46" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F46" s="38">
-        <f>F45+F44</f>
-        <v>13852.123101818181</v>
+        <f>A45</f>
+        <v>13328.111818181818</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
+    <row r="47" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="40">
+        <f>C45</f>
+        <v>2612.3099163636366</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="45"/>
+    <row r="48" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="41">
-        <f>F46</f>
-        <v>13852.123101818181</v>
+        <v>34</v>
+      </c>
+      <c r="F48" s="38">
+        <f>F47+F46</f>
+        <v>15940.421734545454</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+    <row r="49" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B49" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="44"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+    <row r="50" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="45"/>
+      <c r="E50" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="41">
+        <f>F48</f>
+        <v>15940.421734545454</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1582,63 +1610,63 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="42"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="42"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="D60" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="43"/>
+      <c r="F60" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1648,7 +1676,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1658,7 +1686,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1668,7 +1696,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1678,7 +1706,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1688,7 +1716,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1698,7 +1726,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1708,7 +1736,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1718,7 +1746,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1728,7 +1756,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1739,10 +1767,11 @@
       <c r="H70" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A41:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>

--- a/Projet_2(organisation)/budget/devis.xlsx
+++ b/Projet_2(organisation)/budget/devis.xlsx
@@ -371,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -454,7 +454,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,11 +927,11 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -1140,12 +1139,12 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="16" t="s">
         <v>10</v>
       </c>
@@ -1160,12 +1159,12 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
       <c r="G24" s="6"/>
@@ -1179,11 +1178,11 @@
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
       <c r="E25" s="23">
-        <v>478.63636363636368</v>
+        <v>331.36363636363643</v>
       </c>
       <c r="F25" s="24">
         <f>E25*1.196</f>
-        <v>572.44909090909096</v>
+        <v>396.31090909090915</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1196,11 +1195,11 @@
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23">
-        <v>1435.909090909091</v>
+        <v>1325.4545454545457</v>
       </c>
       <c r="F26" s="24">
         <f>E26*1.196</f>
-        <v>1717.3472727272729</v>
+        <v>1585.2436363636366</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1213,11 +1212,11 @@
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23">
-        <v>2393.1818181818185</v>
+        <v>1656.818181818182</v>
       </c>
       <c r="F27" s="24">
         <f>E27*1.196</f>
-        <v>2862.2454545454548</v>
+        <v>1981.5545454545456</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1230,11 +1229,11 @@
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="23">
-        <v>239.31818181818184</v>
+        <v>165.68181818181822</v>
       </c>
       <c r="F28" s="24">
         <f>E28*1.196</f>
-        <v>286.22454545454548</v>
+        <v>198.15545454545457</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1259,11 +1258,11 @@
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
       <c r="E30" s="23">
-        <v>694.39499999999998</v>
+        <v>638.26159090909096</v>
       </c>
       <c r="F30" s="24">
         <f>E30*1.196</f>
-        <v>830.49641999999994</v>
+        <v>763.36086272727277</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1276,11 +1275,11 @@
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
       <c r="E31" s="23">
-        <v>1382.7272727272725</v>
+        <v>1435.9090909090908</v>
       </c>
       <c r="F31" s="24">
         <f>E31*1.196</f>
-        <v>1653.741818181818</v>
+        <v>1717.3472727272724</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1293,11 +1292,11 @@
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="23">
-        <v>1604.1763636363637</v>
+        <v>1334.5118181818182</v>
       </c>
       <c r="F32" s="24">
         <f>E32*1.196</f>
-        <v>1918.5949309090909</v>
+        <v>1596.0761345454546</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1310,11 +1309,11 @@
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
       <c r="E33" s="23">
-        <v>553.09090909090912</v>
+        <v>574.36363636363637</v>
       </c>
       <c r="F33" s="24">
         <f>E33*1.196</f>
-        <v>661.4967272727273</v>
+        <v>686.93890909090908</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1327,11 +1326,11 @@
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
       <c r="E34" s="23">
-        <v>377.59090909090907</v>
+        <v>309.27272727272731</v>
       </c>
       <c r="F34" s="24">
         <f>E34*1.196</f>
-        <v>451.59872727272722</v>
+        <v>369.89018181818187</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1356,11 +1355,11 @@
       <c r="C36" s="34"/>
       <c r="D36" s="35"/>
       <c r="E36" s="23">
-        <v>646.90363636363634</v>
+        <v>671.78454545454554</v>
       </c>
       <c r="F36" s="24">
         <f t="shared" ref="F36:F41" si="0">E36*1.196</f>
-        <v>773.69674909090907</v>
+        <v>803.45431636363639</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1373,11 +1372,11 @@
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
       <c r="E37" s="23">
-        <v>1267.2163636363637</v>
+        <v>1651.8477272727275</v>
       </c>
       <c r="F37" s="24">
         <f t="shared" si="0"/>
-        <v>1515.5907709090909</v>
+        <v>1975.609881818182</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1390,11 +1389,11 @@
       <c r="C38" s="34"/>
       <c r="D38" s="35"/>
       <c r="E38" s="23">
-        <v>276.54545454545456</v>
+        <v>574.36363636363637</v>
       </c>
       <c r="F38" s="24">
         <f t="shared" si="0"/>
-        <v>330.74836363636365</v>
+        <v>686.93890909090908</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1407,11 +1406,11 @@
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
       <c r="E39" s="23">
-        <v>401.04409090909093</v>
+        <v>333.62795454545454</v>
       </c>
       <c r="F39" s="24">
         <f t="shared" si="0"/>
-        <v>479.64873272727272</v>
+        <v>399.01903363636364</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1424,28 +1423,28 @@
       <c r="C40" s="21"/>
       <c r="D40" s="22"/>
       <c r="E40" s="23">
-        <v>1267.2163636363637</v>
+        <v>1315.9554545454546</v>
       </c>
       <c r="F40" s="24">
         <f t="shared" si="0"/>
-        <v>1515.5907709090909</v>
+        <v>1573.8827236363636</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="46">
-        <v>310.16000000000003</v>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="23">
+        <v>322.08545454545458</v>
       </c>
       <c r="F41" s="24">
         <f t="shared" si="0"/>
-        <v>370.95136000000002</v>
+        <v>385.21420363636366</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1475,14 +1474,14 @@
     <row r="45" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="38">
         <f>SUM(E25:E41)</f>
-        <v>13328.111818181818</v>
+        <v>12641.301818181817</v>
       </c>
       <c r="B45" s="39">
-        <v>0.19600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C45" s="40">
-        <f>A45*0.196</f>
-        <v>2612.3099163636366</v>
+        <f>A45*B45</f>
+        <v>2528.2603636363638</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
@@ -1500,7 +1499,7 @@
       </c>
       <c r="F46" s="38">
         <f>A45</f>
-        <v>13328.111818181818</v>
+        <v>12641.301818181817</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -1515,7 +1514,7 @@
       </c>
       <c r="F47" s="40">
         <f>C45</f>
-        <v>2612.3099163636366</v>
+        <v>2528.2603636363638</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -1532,7 +1531,7 @@
       </c>
       <c r="F48" s="38">
         <f>F47+F46</f>
-        <v>15940.421734545454</v>
+        <v>15169.562181818181</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -1558,7 +1557,7 @@
       </c>
       <c r="F50" s="41">
         <f>F48</f>
-        <v>15940.421734545454</v>
+        <v>15169.562181818181</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
